--- a/DATOS/RENDIMIENTO/Rendimiento_Metas_Sanitarias_2026-02-20.xlsx
+++ b/DATOS/RENDIMIENTO/Rendimiento_Metas_Sanitarias_2026-02-20.xlsx
@@ -1127,22 +1127,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>121460</t>
+          <t>121780</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>EL SALAR</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="G13" t="n">
-        <v>141</v>
+        <v>965</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>60.93</v>
       </c>
       <c r="I13" t="n">
         <v>63</v>
@@ -1151,13 +1151,13 @@
         <v>80</v>
       </c>
       <c r="K13" t="n">
-        <v>63</v>
+        <v>2.07</v>
       </c>
       <c r="L13" t="n">
-        <v>80</v>
+        <v>19.07</v>
       </c>
       <c r="M13" t="n">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1183,22 +1183,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>121309</t>
+          <t>121352</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>M. VALECH</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4209</v>
+        <v>1284</v>
       </c>
       <c r="G14" t="n">
-        <v>8491</v>
+        <v>1932</v>
       </c>
       <c r="H14" t="n">
-        <v>49.57</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="I14" t="n">
         <v>63</v>
@@ -1207,17 +1207,17 @@
         <v>80</v>
       </c>
       <c r="K14" t="n">
-        <v>13.43</v>
+        <v>-3.46</v>
       </c>
       <c r="L14" t="n">
-        <v>30.43</v>
+        <v>13.54</v>
       </c>
       <c r="M14" t="n">
-        <v>1140</v>
+        <v>0</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Cumplido</t>
         </is>
       </c>
     </row>
@@ -1239,22 +1239,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>121305</t>
+          <t>121309</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>VILLA ALEGRE</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4492</v>
+        <v>4209</v>
       </c>
       <c r="G15" t="n">
-        <v>7307</v>
+        <v>8491</v>
       </c>
       <c r="H15" t="n">
-        <v>61.48</v>
+        <v>49.57</v>
       </c>
       <c r="I15" t="n">
         <v>63</v>
@@ -1263,13 +1263,13 @@
         <v>80</v>
       </c>
       <c r="K15" t="n">
-        <v>1.52</v>
+        <v>13.43</v>
       </c>
       <c r="L15" t="n">
-        <v>18.52</v>
+        <v>30.43</v>
       </c>
       <c r="M15" t="n">
-        <v>111</v>
+        <v>1140</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1295,22 +1295,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>121347</t>
+          <t>121306</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PEDRO DE VALDIVIA</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3392</v>
+        <v>5409</v>
       </c>
       <c r="G16" t="n">
-        <v>5863</v>
+        <v>9211</v>
       </c>
       <c r="H16" t="n">
-        <v>57.85</v>
+        <v>58.72</v>
       </c>
       <c r="I16" t="n">
         <v>63</v>
@@ -1319,13 +1319,13 @@
         <v>80</v>
       </c>
       <c r="K16" t="n">
-        <v>5.15</v>
+        <v>4.28</v>
       </c>
       <c r="L16" t="n">
-        <v>22.15</v>
+        <v>21.28</v>
       </c>
       <c r="M16" t="n">
-        <v>302</v>
+        <v>394</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1351,22 +1351,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>121788</t>
+          <t>121305</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>LAS QUILAS</t>
+          <t>VILLA ALEGRE</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>528</v>
+        <v>4492</v>
       </c>
       <c r="G17" t="n">
-        <v>1248</v>
+        <v>7307</v>
       </c>
       <c r="H17" t="n">
-        <v>42.31</v>
+        <v>61.48</v>
       </c>
       <c r="I17" t="n">
         <v>63</v>
@@ -1375,13 +1375,13 @@
         <v>80</v>
       </c>
       <c r="K17" t="n">
-        <v>20.69</v>
+        <v>1.52</v>
       </c>
       <c r="L17" t="n">
-        <v>37.69</v>
+        <v>18.52</v>
       </c>
       <c r="M17" t="n">
-        <v>258</v>
+        <v>111</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1407,22 +1407,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>121306</t>
+          <t>121788</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>LAS QUILAS</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5409</v>
+        <v>528</v>
       </c>
       <c r="G18" t="n">
-        <v>9211</v>
+        <v>1248</v>
       </c>
       <c r="H18" t="n">
-        <v>58.72</v>
+        <v>42.31</v>
       </c>
       <c r="I18" t="n">
         <v>63</v>
@@ -1431,13 +1431,13 @@
         <v>80</v>
       </c>
       <c r="K18" t="n">
-        <v>4.28</v>
+        <v>20.69</v>
       </c>
       <c r="L18" t="n">
-        <v>21.28</v>
+        <v>37.69</v>
       </c>
       <c r="M18" t="n">
-        <v>394</v>
+        <v>258</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1463,22 +1463,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>121352</t>
+          <t>121307</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>M. VALECH</t>
+          <t>AMANECER</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1284</v>
+        <v>5735</v>
       </c>
       <c r="G19" t="n">
-        <v>1932</v>
+        <v>12852</v>
       </c>
       <c r="H19" t="n">
-        <v>66.45999999999999</v>
+        <v>44.62</v>
       </c>
       <c r="I19" t="n">
         <v>63</v>
@@ -1487,17 +1487,17 @@
         <v>80</v>
       </c>
       <c r="K19" t="n">
-        <v>-3.46</v>
+        <v>18.38</v>
       </c>
       <c r="L19" t="n">
-        <v>13.54</v>
+        <v>35.38</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>2362</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Cumplido</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -1519,22 +1519,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>121782</t>
+          <t>121350</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ARQUENCO</t>
+          <t>LABRANZA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>764</v>
+        <v>6387</v>
       </c>
       <c r="G20" t="n">
-        <v>1322</v>
+        <v>10091</v>
       </c>
       <c r="H20" t="n">
-        <v>57.79</v>
+        <v>63.29</v>
       </c>
       <c r="I20" t="n">
         <v>63</v>
@@ -1543,17 +1543,17 @@
         <v>80</v>
       </c>
       <c r="K20" t="n">
-        <v>5.21</v>
+        <v>-0.29</v>
       </c>
       <c r="L20" t="n">
-        <v>22.21</v>
+        <v>16.71</v>
       </c>
       <c r="M20" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Cumplido</t>
         </is>
       </c>
     </row>
@@ -1575,22 +1575,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>121350</t>
+          <t>121347</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>LABRANZA</t>
+          <t>PEDRO DE VALDIVIA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>6387</v>
+        <v>3392</v>
       </c>
       <c r="G21" t="n">
-        <v>10091</v>
+        <v>5863</v>
       </c>
       <c r="H21" t="n">
-        <v>63.29</v>
+        <v>57.85</v>
       </c>
       <c r="I21" t="n">
         <v>63</v>
@@ -1599,17 +1599,17 @@
         <v>80</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.29</v>
+        <v>5.15</v>
       </c>
       <c r="L21" t="n">
-        <v>16.71</v>
+        <v>22.15</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Cumplido</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -1631,22 +1631,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>121780</t>
+          <t>200183</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>EL SALAR</t>
+          <t>EL CARMEN</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>588</v>
+        <v>3735</v>
       </c>
       <c r="G22" t="n">
-        <v>965</v>
+        <v>6955</v>
       </c>
       <c r="H22" t="n">
-        <v>60.93</v>
+        <v>53.7</v>
       </c>
       <c r="I22" t="n">
         <v>63</v>
@@ -1655,13 +1655,13 @@
         <v>80</v>
       </c>
       <c r="K22" t="n">
-        <v>2.07</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L22" t="n">
-        <v>19.07</v>
+        <v>26.3</v>
       </c>
       <c r="M22" t="n">
-        <v>20</v>
+        <v>647</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1687,22 +1687,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>121307</t>
+          <t>121782</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>AMANECER</t>
+          <t>ARQUENCO</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5735</v>
+        <v>764</v>
       </c>
       <c r="G23" t="n">
-        <v>12852</v>
+        <v>1322</v>
       </c>
       <c r="H23" t="n">
-        <v>44.62</v>
+        <v>57.79</v>
       </c>
       <c r="I23" t="n">
         <v>63</v>
@@ -1711,13 +1711,13 @@
         <v>80</v>
       </c>
       <c r="K23" t="n">
-        <v>18.38</v>
+        <v>5.21</v>
       </c>
       <c r="L23" t="n">
-        <v>35.38</v>
+        <v>22.21</v>
       </c>
       <c r="M23" t="n">
-        <v>2362</v>
+        <v>69</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -1743,22 +1743,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>200183</t>
+          <t>121460</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>EL CARMEN</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3735</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>6955</v>
+        <v>141</v>
       </c>
       <c r="H24" t="n">
-        <v>53.7</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>63</v>
@@ -1767,13 +1767,13 @@
         <v>80</v>
       </c>
       <c r="K24" t="n">
-        <v>9.300000000000001</v>
+        <v>63</v>
       </c>
       <c r="L24" t="n">
-        <v>26.3</v>
+        <v>80</v>
       </c>
       <c r="M24" t="n">
-        <v>647</v>
+        <v>89</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -1799,19 +1799,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>121350</t>
+          <t>121309</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>LABRANZA</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>4265</v>
+        <v>2551</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>121350</t>
+          <t>121309</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>LABRANZA</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>486</v>
+        <v>296</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1885,7 +1885,7 @@
         <v>21</v>
       </c>
       <c r="M26" t="n">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -1911,19 +1911,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>121460</t>
+          <t>121347</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>PEDRO DE VALDIVIA</t>
         </is>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>30</v>
+        <v>2406</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1967,19 +1967,19 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>121460</t>
+          <t>121347</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>PEDRO DE VALDIVIA</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>262</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1997,7 +1997,7 @@
         <v>21</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2023,19 +2023,19 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>121352</t>
+          <t>121305</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>M. VALECH</t>
+          <t>VILLA ALEGRE</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>832</v>
+        <v>2508</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2079,19 +2079,19 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>121352</t>
+          <t>121305</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>M. VALECH</t>
+          <t>VILLA ALEGRE</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>98</v>
+        <v>269</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>21</v>
       </c>
       <c r="M30" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2135,19 +2135,19 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>121788</t>
+          <t>121780</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>LAS QUILAS</t>
+          <t>EL SALAR</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2191,19 +2191,19 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>121788</t>
+          <t>121780</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>LAS QUILAS</t>
+          <t>EL SALAR</t>
         </is>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>21</v>
       </c>
       <c r="M32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2247,19 +2247,19 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>200183</t>
+          <t>121307</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>EL CARMEN</t>
+          <t>AMANECER</t>
         </is>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2419</v>
+        <v>4018</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2303,19 +2303,19 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>200183</t>
+          <t>121307</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>EL CARMEN</t>
+          <t>AMANECER</t>
         </is>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>271</v>
+        <v>433</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>21</v>
       </c>
       <c r="M34" t="n">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2359,19 +2359,19 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>121309</t>
+          <t>121352</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>M. VALECH</t>
         </is>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2551</v>
+        <v>832</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2415,19 +2415,19 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>121309</t>
+          <t>121352</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>M. VALECH</t>
         </is>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>296</v>
+        <v>98</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>21</v>
       </c>
       <c r="M36" t="n">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2471,19 +2471,19 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>121782</t>
+          <t>200183</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ARQUENCO</t>
+          <t>EL CARMEN</t>
         </is>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>361</v>
+        <v>2419</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>121782</t>
+          <t>200183</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ARQUENCO</t>
+          <t>EL CARMEN</t>
         </is>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>52</v>
+        <v>271</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>21</v>
       </c>
       <c r="M38" t="n">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -2583,19 +2583,19 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>121780</t>
+          <t>121782</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>EL SALAR</t>
+          <t>ARQUENCO</t>
         </is>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2639,19 +2639,19 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>121780</t>
+          <t>121782</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>EL SALAR</t>
+          <t>ARQUENCO</t>
         </is>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>21</v>
       </c>
       <c r="M40" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -2695,19 +2695,19 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>121347</t>
+          <t>121306</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>PEDRO DE VALDIVIA</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2406</v>
+        <v>3028</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2751,19 +2751,19 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>121347</t>
+          <t>121306</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>PEDRO DE VALDIVIA</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>262</v>
+        <v>343</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>21</v>
       </c>
       <c r="M42" t="n">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -2807,19 +2807,19 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>121305</t>
+          <t>121350</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>VILLA ALEGRE</t>
+          <t>LABRANZA</t>
         </is>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2508</v>
+        <v>4265</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2863,19 +2863,19 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>121305</t>
+          <t>121350</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>VILLA ALEGRE</t>
+          <t>LABRANZA</t>
         </is>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>269</v>
+        <v>486</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>21</v>
       </c>
       <c r="M44" t="n">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -2919,19 +2919,19 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>121306</t>
+          <t>121460</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>3028</v>
+        <v>30</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2975,19 +2975,19 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>121306</t>
+          <t>121460</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>343</v>
+        <v>5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3005,7 +3005,7 @@
         <v>21</v>
       </c>
       <c r="M46" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3031,19 +3031,19 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>121307</t>
+          <t>121788</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>AMANECER</t>
+          <t>LAS QUILAS</t>
         </is>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>4018</v>
+        <v>383</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3087,19 +3087,19 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>121307</t>
+          <t>121788</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>AMANECER</t>
+          <t>LAS QUILAS</t>
         </is>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>433</v>
+        <v>43</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>21</v>
       </c>
       <c r="M48" t="n">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3143,22 +3143,22 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>121350</t>
+          <t>121347</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>LABRANZA</t>
+          <t>PEDRO DE VALDIVIA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1140</v>
+        <v>790</v>
       </c>
       <c r="G49" t="n">
-        <v>3219</v>
+        <v>2071</v>
       </c>
       <c r="H49" t="n">
-        <v>35.41</v>
+        <v>38.15</v>
       </c>
       <c r="I49" t="n">
         <v>29</v>
@@ -3167,10 +3167,10 @@
         <v>29</v>
       </c>
       <c r="K49" t="n">
-        <v>-6.41</v>
+        <v>-9.15</v>
       </c>
       <c r="L49" t="n">
-        <v>-6.41</v>
+        <v>-9.15</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -3199,22 +3199,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>121350</t>
+          <t>121347</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>LABRANZA</t>
+          <t>PEDRO DE VALDIVIA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1702</v>
+        <v>1171</v>
       </c>
       <c r="G50" t="n">
-        <v>1629</v>
+        <v>1385</v>
       </c>
       <c r="H50" t="n">
-        <v>104.48</v>
+        <v>84.55</v>
       </c>
       <c r="I50" t="n">
         <v>90</v>
@@ -3223,17 +3223,17 @@
         <v>90</v>
       </c>
       <c r="K50" t="n">
-        <v>-14.48</v>
+        <v>5.45</v>
       </c>
       <c r="L50" t="n">
-        <v>-14.48</v>
+        <v>5.45</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Cumplido</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -3367,22 +3367,22 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>121307</t>
+          <t>121788</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>AMANECER</t>
+          <t>LAS QUILAS</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2218</v>
+        <v>192</v>
       </c>
       <c r="G53" t="n">
-        <v>4557</v>
+        <v>451</v>
       </c>
       <c r="H53" t="n">
-        <v>48.67</v>
+        <v>42.57</v>
       </c>
       <c r="I53" t="n">
         <v>29</v>
@@ -3391,10 +3391,10 @@
         <v>29</v>
       </c>
       <c r="K53" t="n">
-        <v>-19.67</v>
+        <v>-13.57</v>
       </c>
       <c r="L53" t="n">
-        <v>-19.67</v>
+        <v>-13.57</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>121307</t>
+          <t>121788</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>AMANECER</t>
+          <t>LAS QUILAS</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3066</v>
+        <v>282</v>
       </c>
       <c r="G54" t="n">
-        <v>3215</v>
+        <v>289</v>
       </c>
       <c r="H54" t="n">
-        <v>95.37</v>
+        <v>97.58</v>
       </c>
       <c r="I54" t="n">
         <v>90</v>
@@ -3447,10 +3447,10 @@
         <v>90</v>
       </c>
       <c r="K54" t="n">
-        <v>-5.37</v>
+        <v>-7.58</v>
       </c>
       <c r="L54" t="n">
-        <v>-5.37</v>
+        <v>-7.58</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -3591,22 +3591,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>121460</t>
+          <t>121352</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>M. VALECH</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="G57" t="n">
-        <v>64</v>
+        <v>714</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>40.34</v>
       </c>
       <c r="I57" t="n">
         <v>29</v>
@@ -3615,17 +3615,17 @@
         <v>29</v>
       </c>
       <c r="K57" t="n">
-        <v>29</v>
+        <v>-11.34</v>
       </c>
       <c r="L57" t="n">
-        <v>29</v>
+        <v>-11.34</v>
       </c>
       <c r="M57" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Cumplido</t>
         </is>
       </c>
     </row>
@@ -3647,22 +3647,22 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>121460</t>
+          <t>121352</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>M. VALECH</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="I58" t="n">
         <v>90</v>
@@ -3671,13 +3671,13 @@
         <v>90</v>
       </c>
       <c r="K58" t="n">
-        <v>90</v>
+        <v>9.1</v>
       </c>
       <c r="L58" t="n">
-        <v>90</v>
+        <v>9.1</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -3703,22 +3703,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>121306</t>
+          <t>121780</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>EL SALAR</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2802</v>
+        <v>182</v>
       </c>
       <c r="G59" t="n">
-        <v>3251</v>
+        <v>328</v>
       </c>
       <c r="H59" t="n">
-        <v>86.19</v>
+        <v>55.49</v>
       </c>
       <c r="I59" t="n">
         <v>29</v>
@@ -3727,10 +3727,10 @@
         <v>29</v>
       </c>
       <c r="K59" t="n">
-        <v>-57.19</v>
+        <v>-26.49</v>
       </c>
       <c r="L59" t="n">
-        <v>-57.19</v>
+        <v>-26.49</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -3759,22 +3759,22 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>121306</t>
+          <t>121780</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>EL SALAR</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2154</v>
+        <v>240</v>
       </c>
       <c r="G60" t="n">
-        <v>2270</v>
+        <v>266</v>
       </c>
       <c r="H60" t="n">
-        <v>94.89</v>
+        <v>90.23</v>
       </c>
       <c r="I60" t="n">
         <v>90</v>
@@ -3783,10 +3783,10 @@
         <v>90</v>
       </c>
       <c r="K60" t="n">
-        <v>-4.89</v>
+        <v>-0.23</v>
       </c>
       <c r="L60" t="n">
-        <v>-4.89</v>
+        <v>-0.23</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -3927,22 +3927,22 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>121309</t>
+          <t>121307</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>AMANECER</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1249</v>
+        <v>2218</v>
       </c>
       <c r="G63" t="n">
-        <v>2817</v>
+        <v>4557</v>
       </c>
       <c r="H63" t="n">
-        <v>44.34</v>
+        <v>48.67</v>
       </c>
       <c r="I63" t="n">
         <v>29</v>
@@ -3951,10 +3951,10 @@
         <v>29</v>
       </c>
       <c r="K63" t="n">
-        <v>-15.34</v>
+        <v>-19.67</v>
       </c>
       <c r="L63" t="n">
-        <v>-15.34</v>
+        <v>-19.67</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -3983,22 +3983,22 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>121309</t>
+          <t>121307</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>AMANECER</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1478</v>
+        <v>3066</v>
       </c>
       <c r="G64" t="n">
-        <v>1555</v>
+        <v>3215</v>
       </c>
       <c r="H64" t="n">
-        <v>95.05</v>
+        <v>95.37</v>
       </c>
       <c r="I64" t="n">
         <v>90</v>
@@ -4007,10 +4007,10 @@
         <v>90</v>
       </c>
       <c r="K64" t="n">
-        <v>-5.05</v>
+        <v>-5.37</v>
       </c>
       <c r="L64" t="n">
-        <v>-5.05</v>
+        <v>-5.37</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -4039,22 +4039,22 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>121780</t>
+          <t>121309</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>EL SALAR</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>182</v>
+        <v>1249</v>
       </c>
       <c r="G65" t="n">
-        <v>328</v>
+        <v>2817</v>
       </c>
       <c r="H65" t="n">
-        <v>55.49</v>
+        <v>44.34</v>
       </c>
       <c r="I65" t="n">
         <v>29</v>
@@ -4063,10 +4063,10 @@
         <v>29</v>
       </c>
       <c r="K65" t="n">
-        <v>-26.49</v>
+        <v>-15.34</v>
       </c>
       <c r="L65" t="n">
-        <v>-26.49</v>
+        <v>-15.34</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -4095,22 +4095,22 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>121780</t>
+          <t>121309</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>EL SALAR</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>240</v>
+        <v>1478</v>
       </c>
       <c r="G66" t="n">
-        <v>266</v>
+        <v>1555</v>
       </c>
       <c r="H66" t="n">
-        <v>90.23</v>
+        <v>95.05</v>
       </c>
       <c r="I66" t="n">
         <v>90</v>
@@ -4119,10 +4119,10 @@
         <v>90</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.23</v>
+        <v>-5.05</v>
       </c>
       <c r="L66" t="n">
-        <v>-0.23</v>
+        <v>-5.05</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -4151,22 +4151,22 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>121788</t>
+          <t>121306</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>LAS QUILAS</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>192</v>
+        <v>2802</v>
       </c>
       <c r="G67" t="n">
-        <v>451</v>
+        <v>3251</v>
       </c>
       <c r="H67" t="n">
-        <v>42.57</v>
+        <v>86.19</v>
       </c>
       <c r="I67" t="n">
         <v>29</v>
@@ -4175,10 +4175,10 @@
         <v>29</v>
       </c>
       <c r="K67" t="n">
-        <v>-13.57</v>
+        <v>-57.19</v>
       </c>
       <c r="L67" t="n">
-        <v>-13.57</v>
+        <v>-57.19</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -4207,22 +4207,22 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>121788</t>
+          <t>121306</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>LAS QUILAS</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>282</v>
+        <v>2154</v>
       </c>
       <c r="G68" t="n">
-        <v>289</v>
+        <v>2270</v>
       </c>
       <c r="H68" t="n">
-        <v>97.58</v>
+        <v>94.89</v>
       </c>
       <c r="I68" t="n">
         <v>90</v>
@@ -4231,10 +4231,10 @@
         <v>90</v>
       </c>
       <c r="K68" t="n">
-        <v>-7.58</v>
+        <v>-4.89</v>
       </c>
       <c r="L68" t="n">
-        <v>-7.58</v>
+        <v>-4.89</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -4263,22 +4263,22 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>121352</t>
+          <t>121350</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>M. VALECH</t>
+          <t>LABRANZA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>288</v>
+        <v>1140</v>
       </c>
       <c r="G69" t="n">
-        <v>714</v>
+        <v>3219</v>
       </c>
       <c r="H69" t="n">
-        <v>40.34</v>
+        <v>35.41</v>
       </c>
       <c r="I69" t="n">
         <v>29</v>
@@ -4287,10 +4287,10 @@
         <v>29</v>
       </c>
       <c r="K69" t="n">
-        <v>-11.34</v>
+        <v>-6.41</v>
       </c>
       <c r="L69" t="n">
-        <v>-11.34</v>
+        <v>-6.41</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -4319,22 +4319,22 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>121352</t>
+          <t>121350</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>M. VALECH</t>
+          <t>LABRANZA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>415</v>
+        <v>1702</v>
       </c>
       <c r="G70" t="n">
-        <v>513</v>
+        <v>1629</v>
       </c>
       <c r="H70" t="n">
-        <v>80.90000000000001</v>
+        <v>104.48</v>
       </c>
       <c r="I70" t="n">
         <v>90</v>
@@ -4343,17 +4343,17 @@
         <v>90</v>
       </c>
       <c r="K70" t="n">
-        <v>9.1</v>
+        <v>-14.48</v>
       </c>
       <c r="L70" t="n">
-        <v>9.1</v>
+        <v>-14.48</v>
       </c>
       <c r="M70" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Cumplido</t>
         </is>
       </c>
     </row>
@@ -4375,22 +4375,22 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>121347</t>
+          <t>121460</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>PEDRO DE VALDIVIA</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>2071</v>
+        <v>64</v>
       </c>
       <c r="H71" t="n">
-        <v>38.15</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>29</v>
@@ -4399,17 +4399,17 @@
         <v>29</v>
       </c>
       <c r="K71" t="n">
-        <v>-9.15</v>
+        <v>29</v>
       </c>
       <c r="L71" t="n">
-        <v>-9.15</v>
+        <v>29</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Cumplido</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -4431,22 +4431,22 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>121347</t>
+          <t>121460</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>PEDRO DE VALDIVIA</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1171</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1385</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>84.55</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>90</v>
@@ -4455,13 +4455,13 @@
         <v>90</v>
       </c>
       <c r="K72" t="n">
-        <v>5.45</v>
+        <v>90</v>
       </c>
       <c r="L72" t="n">
-        <v>5.45</v>
+        <v>90</v>
       </c>
       <c r="M72" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -4487,22 +4487,22 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>121782</t>
+          <t>121347</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ARQUENCO</t>
+          <t>PEDRO DE VALDIVIA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>420</v>
+        <v>1592</v>
       </c>
       <c r="G73" t="n">
-        <v>943</v>
+        <v>4515</v>
       </c>
       <c r="H73" t="n">
-        <v>44.54</v>
+        <v>35.26</v>
       </c>
       <c r="I73" t="n">
         <v>40</v>
@@ -4511,17 +4511,17 @@
         <v>45</v>
       </c>
       <c r="K73" t="n">
-        <v>-4.54</v>
+        <v>4.74</v>
       </c>
       <c r="L73" t="n">
-        <v>0.46</v>
+        <v>9.74</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Cumplido</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -4543,22 +4543,22 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>121460</t>
+          <t>121780</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>EL SALAR</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="G74" t="n">
-        <v>175</v>
+        <v>722</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>47.92</v>
       </c>
       <c r="I74" t="n">
         <v>40</v>
@@ -4567,17 +4567,17 @@
         <v>45</v>
       </c>
       <c r="K74" t="n">
-        <v>40</v>
+        <v>-7.92</v>
       </c>
       <c r="L74" t="n">
-        <v>45</v>
+        <v>-2.92</v>
       </c>
       <c r="M74" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Cumplido</t>
         </is>
       </c>
     </row>
@@ -4599,22 +4599,22 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>121347</t>
+          <t>121306</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>PEDRO DE VALDIVIA</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1592</v>
+        <v>4540</v>
       </c>
       <c r="G75" t="n">
-        <v>4515</v>
+        <v>7979</v>
       </c>
       <c r="H75" t="n">
-        <v>35.26</v>
+        <v>56.9</v>
       </c>
       <c r="I75" t="n">
         <v>40</v>
@@ -4623,17 +4623,17 @@
         <v>45</v>
       </c>
       <c r="K75" t="n">
-        <v>4.74</v>
+        <v>-16.9</v>
       </c>
       <c r="L75" t="n">
-        <v>9.74</v>
+        <v>-11.9</v>
       </c>
       <c r="M75" t="n">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Cumplido</t>
         </is>
       </c>
     </row>
@@ -4655,22 +4655,22 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>121309</t>
+          <t>200183</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>EL CARMEN</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1853</v>
+        <v>1290</v>
       </c>
       <c r="G76" t="n">
-        <v>7153</v>
+        <v>4478</v>
       </c>
       <c r="H76" t="n">
-        <v>25.91</v>
+        <v>28.81</v>
       </c>
       <c r="I76" t="n">
         <v>40</v>
@@ -4679,13 +4679,13 @@
         <v>45</v>
       </c>
       <c r="K76" t="n">
-        <v>14.09</v>
+        <v>11.19</v>
       </c>
       <c r="L76" t="n">
-        <v>19.09</v>
+        <v>16.19</v>
       </c>
       <c r="M76" t="n">
-        <v>1008</v>
+        <v>501</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -4711,22 +4711,22 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>200183</t>
+          <t>121309</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>EL CARMEN</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1290</v>
+        <v>1853</v>
       </c>
       <c r="G77" t="n">
-        <v>4478</v>
+        <v>7153</v>
       </c>
       <c r="H77" t="n">
-        <v>28.81</v>
+        <v>25.91</v>
       </c>
       <c r="I77" t="n">
         <v>40</v>
@@ -4735,13 +4735,13 @@
         <v>45</v>
       </c>
       <c r="K77" t="n">
-        <v>11.19</v>
+        <v>14.09</v>
       </c>
       <c r="L77" t="n">
-        <v>16.19</v>
+        <v>19.09</v>
       </c>
       <c r="M77" t="n">
-        <v>501</v>
+        <v>1008</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -4767,22 +4767,22 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>121350</t>
+          <t>121788</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>LABRANZA</t>
+          <t>LAS QUILAS</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2862</v>
+        <v>370</v>
       </c>
       <c r="G78" t="n">
-        <v>6749</v>
+        <v>1130</v>
       </c>
       <c r="H78" t="n">
-        <v>42.41</v>
+        <v>32.74</v>
       </c>
       <c r="I78" t="n">
         <v>40</v>
@@ -4791,17 +4791,17 @@
         <v>45</v>
       </c>
       <c r="K78" t="n">
-        <v>-2.41</v>
+        <v>7.26</v>
       </c>
       <c r="L78" t="n">
-        <v>2.59</v>
+        <v>12.26</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Cumplido</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -4823,22 +4823,22 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>121788</t>
+          <t>121350</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>LAS QUILAS</t>
+          <t>LABRANZA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>370</v>
+        <v>2862</v>
       </c>
       <c r="G79" t="n">
-        <v>1130</v>
+        <v>6749</v>
       </c>
       <c r="H79" t="n">
-        <v>32.74</v>
+        <v>42.41</v>
       </c>
       <c r="I79" t="n">
         <v>40</v>
@@ -4847,17 +4847,17 @@
         <v>45</v>
       </c>
       <c r="K79" t="n">
-        <v>7.26</v>
+        <v>-2.41</v>
       </c>
       <c r="L79" t="n">
-        <v>12.26</v>
+        <v>2.59</v>
       </c>
       <c r="M79" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Cumplido</t>
         </is>
       </c>
     </row>
@@ -4879,22 +4879,22 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>121780</t>
+          <t>121782</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>EL SALAR</t>
+          <t>ARQUENCO</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>346</v>
+        <v>420</v>
       </c>
       <c r="G80" t="n">
-        <v>722</v>
+        <v>943</v>
       </c>
       <c r="H80" t="n">
-        <v>47.92</v>
+        <v>44.54</v>
       </c>
       <c r="I80" t="n">
         <v>40</v>
@@ -4903,10 +4903,10 @@
         <v>45</v>
       </c>
       <c r="K80" t="n">
-        <v>-7.92</v>
+        <v>-4.54</v>
       </c>
       <c r="L80" t="n">
-        <v>-2.92</v>
+        <v>0.46</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
@@ -4935,22 +4935,22 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>121306</t>
+          <t>121460</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>4540</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>7979</v>
+        <v>175</v>
       </c>
       <c r="H81" t="n">
-        <v>56.9</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>40</v>
@@ -4959,17 +4959,17 @@
         <v>45</v>
       </c>
       <c r="K81" t="n">
-        <v>-16.9</v>
+        <v>40</v>
       </c>
       <c r="L81" t="n">
-        <v>-11.9</v>
+        <v>45</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Cumplido</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -4991,22 +4991,22 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>121307</t>
+          <t>121305</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>AMANECER</t>
+          <t>VILLA ALEGRE</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>4637</v>
+        <v>2667</v>
       </c>
       <c r="G82" t="n">
-        <v>11309</v>
+        <v>6249</v>
       </c>
       <c r="H82" t="n">
-        <v>41</v>
+        <v>42.68</v>
       </c>
       <c r="I82" t="n">
         <v>40</v>
@@ -5015,10 +5015,10 @@
         <v>45</v>
       </c>
       <c r="K82" t="n">
-        <v>-1</v>
+        <v>-2.68</v>
       </c>
       <c r="L82" t="n">
-        <v>4</v>
+        <v>2.32</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
@@ -5047,22 +5047,22 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>121352</t>
+          <t>121307</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>M. VALECH</t>
+          <t>AMANECER</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>773</v>
+        <v>4637</v>
       </c>
       <c r="G83" t="n">
-        <v>1742</v>
+        <v>11309</v>
       </c>
       <c r="H83" t="n">
-        <v>44.37</v>
+        <v>41</v>
       </c>
       <c r="I83" t="n">
         <v>40</v>
@@ -5071,10 +5071,10 @@
         <v>45</v>
       </c>
       <c r="K83" t="n">
-        <v>-4.37</v>
+        <v>-1</v>
       </c>
       <c r="L83" t="n">
-        <v>0.63</v>
+        <v>4</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
@@ -5103,22 +5103,22 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>121305</t>
+          <t>121352</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>VILLA ALEGRE</t>
+          <t>M. VALECH</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2667</v>
+        <v>773</v>
       </c>
       <c r="G84" t="n">
-        <v>6249</v>
+        <v>1742</v>
       </c>
       <c r="H84" t="n">
-        <v>42.68</v>
+        <v>44.37</v>
       </c>
       <c r="I84" t="n">
         <v>40</v>
@@ -5127,10 +5127,10 @@
         <v>45</v>
       </c>
       <c r="K84" t="n">
-        <v>-2.68</v>
+        <v>-4.37</v>
       </c>
       <c r="L84" t="n">
-        <v>2.32</v>
+        <v>0.63</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -5159,22 +5159,22 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>121307</t>
+          <t>121347</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>AMANECER</t>
+          <t>PEDRO DE VALDIVIA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1216</v>
+        <v>591</v>
       </c>
       <c r="G85" t="n">
-        <v>6583</v>
+        <v>2954</v>
       </c>
       <c r="H85" t="n">
-        <v>18.47</v>
+        <v>20.01</v>
       </c>
       <c r="I85" t="n">
         <v>16.77</v>
@@ -5183,10 +5183,10 @@
         <v>15</v>
       </c>
       <c r="K85" t="n">
-        <v>-1.7</v>
+        <v>-3.24</v>
       </c>
       <c r="L85" t="n">
-        <v>-3.47</v>
+        <v>-5.01</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -5215,22 +5215,22 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>121352</t>
+          <t>121460</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>M. VALECH</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1056</v>
+        <v>93</v>
       </c>
       <c r="H86" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>16.77</v>
@@ -5239,13 +5239,13 @@
         <v>15</v>
       </c>
       <c r="K86" t="n">
-        <v>9.57</v>
+        <v>16.77</v>
       </c>
       <c r="L86" t="n">
-        <v>7.8</v>
+        <v>15</v>
       </c>
       <c r="M86" t="n">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -5327,22 +5327,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>121305</t>
+          <t>121352</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>VILLA ALEGRE</t>
+          <t>M. VALECH</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>662</v>
+        <v>76</v>
       </c>
       <c r="G88" t="n">
-        <v>3742</v>
+        <v>1056</v>
       </c>
       <c r="H88" t="n">
-        <v>17.69</v>
+        <v>7.2</v>
       </c>
       <c r="I88" t="n">
         <v>16.77</v>
@@ -5351,17 +5351,17 @@
         <v>15</v>
       </c>
       <c r="K88" t="n">
-        <v>-0.92</v>
+        <v>9.57</v>
       </c>
       <c r="L88" t="n">
-        <v>-2.69</v>
+        <v>7.8</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Cumplido</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -5383,22 +5383,22 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>121309</t>
+          <t>121788</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>LAS QUILAS</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1113</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>4157</v>
+        <v>650</v>
       </c>
       <c r="H89" t="n">
-        <v>26.77</v>
+        <v>0.15</v>
       </c>
       <c r="I89" t="n">
         <v>16.77</v>
@@ -5407,17 +5407,17 @@
         <v>15</v>
       </c>
       <c r="K89" t="n">
-        <v>-10</v>
+        <v>16.62</v>
       </c>
       <c r="L89" t="n">
-        <v>-11.77</v>
+        <v>14.85</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Cumplido</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -5439,22 +5439,22 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>200183</t>
+          <t>121305</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>EL CARMEN</t>
+          <t>VILLA ALEGRE</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>334</v>
+        <v>662</v>
       </c>
       <c r="G90" t="n">
-        <v>2989</v>
+        <v>3742</v>
       </c>
       <c r="H90" t="n">
-        <v>11.17</v>
+        <v>17.69</v>
       </c>
       <c r="I90" t="n">
         <v>16.77</v>
@@ -5463,17 +5463,17 @@
         <v>15</v>
       </c>
       <c r="K90" t="n">
-        <v>5.6</v>
+        <v>-0.92</v>
       </c>
       <c r="L90" t="n">
-        <v>3.83</v>
+        <v>-2.69</v>
       </c>
       <c r="M90" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Cumplido</t>
         </is>
       </c>
     </row>
@@ -5495,22 +5495,22 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>121350</t>
+          <t>200183</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>LABRANZA</t>
+          <t>EL CARMEN</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>722</v>
+        <v>334</v>
       </c>
       <c r="G91" t="n">
-        <v>4677</v>
+        <v>2989</v>
       </c>
       <c r="H91" t="n">
-        <v>15.44</v>
+        <v>11.17</v>
       </c>
       <c r="I91" t="n">
         <v>16.77</v>
@@ -5519,13 +5519,13 @@
         <v>15</v>
       </c>
       <c r="K91" t="n">
-        <v>1.33</v>
+        <v>5.6</v>
       </c>
       <c r="L91" t="n">
-        <v>-0.44</v>
+        <v>3.83</v>
       </c>
       <c r="M91" t="n">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -5551,22 +5551,22 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>121788</t>
+          <t>121350</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>LAS QUILAS</t>
+          <t>LABRANZA</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>722</v>
       </c>
       <c r="G92" t="n">
-        <v>650</v>
+        <v>4677</v>
       </c>
       <c r="H92" t="n">
-        <v>0.15</v>
+        <v>15.44</v>
       </c>
       <c r="I92" t="n">
         <v>16.77</v>
@@ -5575,13 +5575,13 @@
         <v>15</v>
       </c>
       <c r="K92" t="n">
-        <v>16.62</v>
+        <v>1.33</v>
       </c>
       <c r="L92" t="n">
-        <v>14.85</v>
+        <v>-0.44</v>
       </c>
       <c r="M92" t="n">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -5663,22 +5663,22 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>121347</t>
+          <t>121309</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>PEDRO DE VALDIVIA</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>591</v>
+        <v>1113</v>
       </c>
       <c r="G94" t="n">
-        <v>2954</v>
+        <v>4157</v>
       </c>
       <c r="H94" t="n">
-        <v>20.01</v>
+        <v>26.77</v>
       </c>
       <c r="I94" t="n">
         <v>16.77</v>
@@ -5687,10 +5687,10 @@
         <v>15</v>
       </c>
       <c r="K94" t="n">
-        <v>-3.24</v>
+        <v>-10</v>
       </c>
       <c r="L94" t="n">
-        <v>-5.01</v>
+        <v>-11.77</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
@@ -5719,22 +5719,22 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>121306</t>
+          <t>121307</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>SANTA ROSA</t>
+          <t>AMANECER</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>912</v>
+        <v>1216</v>
       </c>
       <c r="G95" t="n">
-        <v>4720</v>
+        <v>6583</v>
       </c>
       <c r="H95" t="n">
-        <v>19.32</v>
+        <v>18.47</v>
       </c>
       <c r="I95" t="n">
         <v>16.77</v>
@@ -5743,10 +5743,10 @@
         <v>15</v>
       </c>
       <c r="K95" t="n">
-        <v>-2.55</v>
+        <v>-1.7</v>
       </c>
       <c r="L95" t="n">
-        <v>-4.32</v>
+        <v>-3.47</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
@@ -5775,22 +5775,22 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>121460</t>
+          <t>121306</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>SANTA ROSA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>912</v>
       </c>
       <c r="G96" t="n">
-        <v>93</v>
+        <v>4720</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>19.32</v>
       </c>
       <c r="I96" t="n">
         <v>16.77</v>
@@ -5799,17 +5799,17 @@
         <v>15</v>
       </c>
       <c r="K96" t="n">
-        <v>16.77</v>
+        <v>-2.55</v>
       </c>
       <c r="L96" t="n">
-        <v>15</v>
+        <v>-4.32</v>
       </c>
       <c r="M96" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Cumplido</t>
         </is>
       </c>
     </row>
